--- a/data/new_data_raw_6_.xlsx
+++ b/data/new_data_raw_6_.xlsx
@@ -444,7 +444,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Macarthur</t>
         </is>
       </c>
     </row>
@@ -454,7 +454,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Wellington Phoenix</t>
         </is>
       </c>
     </row>
@@ -484,7 +484,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -494,7 +494,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>(İY 0 - 0)</t>
+          <t>(İY 0 - 1)</t>
         </is>
       </c>
     </row>
@@ -504,7 +504,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>17-12-23 | Ligue 1 | 16. Hafta | Stat: Stadium de Toulouse (23311)</t>
+          <t>18-12-23 | A Lig | 8. Hafta | Stat: Campbelltown Sports Stadium (4893)</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MAÇ SONUCU 22617 MBS 1</t>
+          <t>MAÇ SONUCU 34463 MBS 2</t>
         </is>
       </c>
     </row>
@@ -534,7 +534,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>1.78</t>
         </is>
       </c>
     </row>
@@ -554,7 +554,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>3.24</t>
         </is>
       </c>
     </row>
@@ -574,7 +574,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>3.02</t>
         </is>
       </c>
     </row>
@@ -584,7 +584,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ÇIFTE ŞANS 22618 MBS 1</t>
+          <t>ÇIFTE ŞANS 34464 MBS 2</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.15</t>
         </is>
       </c>
     </row>
@@ -624,7 +624,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.13</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.51</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4,5 ALT/ÜST 22636 MBS 1</t>
+          <t>4,5 ALT/ÜST 34477 MBS 2</t>
         </is>
       </c>
     </row>
@@ -674,7 +674,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.09</t>
         </is>
       </c>
     </row>
@@ -694,7 +694,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>6.09</t>
+          <t>3.58</t>
         </is>
       </c>
     </row>
@@ -704,7 +704,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0,5 ALT/ÜST 22627 MBS 1</t>
+          <t>1,5 ALT/ÜST 34474 MBS 2</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>7.51</t>
+          <t>4.52</t>
         </is>
       </c>
     </row>
@@ -754,7 +754,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1,5 ALT/ÜST 22628 MBS 1</t>
+          <t>2,5 ALT/ÜST 34475 MBS 2</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>2.13</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.39</t>
         </is>
       </c>
     </row>
@@ -804,7 +804,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2,5 ALT/ÜST 22629 MBS 1</t>
+          <t>0,5 ALT/ÜST 34473 MBS 2</t>
         </is>
       </c>
     </row>
@@ -824,7 +824,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>12.00</t>
         </is>
       </c>
     </row>
@@ -844,7 +844,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>3,5 ALT/ÜST 22630 MBS 1</t>
+          <t>3,5 ALT/ÜST 34476 MBS 2</t>
         </is>
       </c>
     </row>
@@ -874,7 +874,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.41</t>
         </is>
       </c>
     </row>
@@ -894,7 +894,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>2.09</t>
         </is>
       </c>
     </row>
@@ -904,7 +904,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1. YARI 0,5 ALT/ÜST 22649 MBS 1</t>
+          <t>1. YARI 1,5 ALT/ÜST 34483 MBS 2</t>
         </is>
       </c>
     </row>
@@ -924,7 +924,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>1.40</t>
         </is>
       </c>
     </row>
@@ -944,7 +944,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>2.11</t>
         </is>
       </c>
     </row>
@@ -954,7 +954,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1. YARI 2,5 ALT/ÜST 22653 MBS 1</t>
+          <t>1. YARI 0,5 ALT/ÜST 34482 MBS 2</t>
         </is>
       </c>
     </row>
@@ -974,7 +974,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3.03</t>
         </is>
       </c>
     </row>
@@ -994,7 +994,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>1.17</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1. YARI 1,5 ALT/ÜST 22652 MBS 1</t>
+          <t>1. YARI 2,5 ALT/ÜST 34484 MBS 2</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>4.71</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1. YARI ÇIFTE ŞANS 22645 MBS 1</t>
+          <t>1. YARI ÇIFTE ŞANS 34481 MBS 2</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.11</t>
         </is>
       </c>
     </row>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.34</t>
         </is>
       </c>
     </row>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.30</t>
         </is>
       </c>
     </row>
@@ -1124,7 +1124,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1. YARI SONUCU 22643 MBS 1</t>
+          <t>1. YARI SONUCU 34480 MBS 2</t>
         </is>
       </c>
     </row>
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>2.21</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>2.08</t>
         </is>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>3.31</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2. YARI SONUCU 22655 MBS 1</t>
+          <t>2. YARI SONUCU 34487 MBS 2</t>
         </is>
       </c>
     </row>
@@ -1214,7 +1214,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>2.06</t>
         </is>
       </c>
     </row>
@@ -1234,7 +1234,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>2.53</t>
         </is>
       </c>
     </row>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>3.12</t>
         </is>
       </c>
     </row>
@@ -1264,7 +1264,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>TEK/ÇIFT 22696 MBS 1</t>
+          <t>TEK/ÇIFT 34503 MBS 2</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.74</t>
         </is>
       </c>
     </row>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>TOPLAM GOL ARALIĞI 22640 MBS 1</t>
+          <t>TOPLAM GOL ARALIĞI 34479 MBS 2</t>
         </is>
       </c>
     </row>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>4.42</t>
         </is>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.87</t>
         </is>
       </c>
     </row>
@@ -1374,7 +1374,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>2.86</t>
         </is>
       </c>
     </row>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>18.20</t>
+          <t>8.28</t>
         </is>
       </c>
     </row>
@@ -1404,7 +1404,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>KARŞILIKLI GOL 22637 MBS 1</t>
+          <t>KARŞILIKLI GOL 34478 MBS 2</t>
         </is>
       </c>
     </row>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.37</t>
         </is>
       </c>
     </row>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>2.16</t>
         </is>
       </c>
     </row>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>İLK YARI/MAÇ SONUCU 22654 MBS 1</t>
+          <t>İLK YARI/MAÇ SONUCU 34486 MBS 1</t>
         </is>
       </c>
     </row>
@@ -1474,7 +1474,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>2.64</t>
         </is>
       </c>
     </row>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>6.38</t>
+          <t>4.80</t>
         </is>
       </c>
     </row>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>34.00</t>
+          <t>22.15</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>13.60</t>
+          <t>12.50</t>
         </is>
       </c>
     </row>
@@ -1554,7 +1554,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>5.31</t>
         </is>
       </c>
     </row>
@@ -1574,7 +1574,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>13.30</t>
+          <t>12.85</t>
         </is>
       </c>
     </row>
@@ -1594,7 +1594,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>27.50</t>
+          <t>32.00</t>
         </is>
       </c>
     </row>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>7.43</t>
         </is>
       </c>
     </row>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>4.88</t>
         </is>
       </c>
     </row>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>HND. MS (0:1) 22619 MBS 1</t>
+          <t>HND. MS (1:0) 34467 MBS 2</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>+1h</t>
         </is>
       </c>
     </row>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>6.37</t>
+          <t>1.16</t>
         </is>
       </c>
     </row>
@@ -1684,7 +1684,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>4.73</t>
         </is>
       </c>
     </row>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>+1h</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>6.25</t>
         </is>
       </c>
     </row>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>HND. MS (2:0) 22621 MBS 1</t>
+          <t>HND. MS (0:2) 34465 MBS 2</t>
         </is>
       </c>
     </row>
@@ -1724,7 +1724,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>+2h</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1734,7 +1734,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>6.22</t>
         </is>
       </c>
     </row>
@@ -1754,7 +1754,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>5.49</t>
+          <t>5.09</t>
         </is>
       </c>
     </row>
@@ -1764,7 +1764,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>+2h</t>
         </is>
       </c>
     </row>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>8.90</t>
+          <t>1.14</t>
         </is>
       </c>
     </row>
@@ -1784,7 +1784,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>HND. MS (1:0) 22620 MBS 1</t>
+          <t>HND. MS (0:1) 34466 MBS 2</t>
         </is>
       </c>
     </row>
@@ -1794,7 +1794,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>+1h</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1804,7 +1804,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>3.04</t>
         </is>
       </c>
     </row>
@@ -1824,7 +1824,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>3.69</t>
         </is>
       </c>
     </row>
@@ -1834,7 +1834,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>+1h</t>
         </is>
       </c>
     </row>
@@ -1844,7 +1844,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>1.58</t>
         </is>
       </c>
     </row>
@@ -1854,7 +1854,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>MAÇ SKORU 22656 MBS 1</t>
+          <t>MAÇ SKORU 34488 MBS 1</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>8.28</t>
+          <t>13.25</t>
         </is>
       </c>
     </row>
@@ -1894,7 +1894,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>6.44</t>
+          <t>11.45</t>
         </is>
       </c>
     </row>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>8.99</t>
+          <t>17.25</t>
         </is>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>18.85</t>
+          <t>39.00</t>
         </is>
       </c>
     </row>
@@ -1954,7 +1954,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>53.00</t>
+          <t>120.00</t>
         </is>
       </c>
     </row>
@@ -1994,7 +1994,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>8.06</t>
+          <t>8.45</t>
         </is>
       </c>
     </row>
@@ -2014,7 +2014,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>5.69</t>
         </is>
       </c>
     </row>
@@ -2034,7 +2034,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>8.01</t>
+          <t>9.68</t>
         </is>
       </c>
     </row>
@@ -2054,7 +2054,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>16.75</t>
+          <t>21.75</t>
         </is>
       </c>
     </row>
@@ -2074,7 +2074,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>47.00</t>
+          <t>65.00</t>
         </is>
       </c>
     </row>
@@ -2114,7 +2114,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>14.20</t>
+          <t>9.33</t>
         </is>
       </c>
     </row>
@@ -2134,7 +2134,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>10.05</t>
+          <t>7.14</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>12.85</t>
+          <t>9.42</t>
         </is>
       </c>
     </row>
@@ -2174,7 +2174,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>30.00</t>
+          <t>23.85</t>
         </is>
       </c>
     </row>
@@ -2194,7 +2194,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>84.00</t>
+          <t>72.00</t>
         </is>
       </c>
     </row>
@@ -2234,7 +2234,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>37.50</t>
+          <t>15.40</t>
         </is>
       </c>
     </row>
@@ -2254,7 +2254,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>26.50</t>
+          <t>11.70</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>37.50</t>
+          <t>17.65</t>
         </is>
       </c>
     </row>
@@ -2294,7 +2294,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>72.00</t>
+          <t>35.00</t>
         </is>
       </c>
     </row>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>130.00</t>
+          <t>33.50</t>
         </is>
       </c>
     </row>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>94.00</t>
+          <t>25.50</t>
         </is>
       </c>
     </row>
@@ -2354,7 +2354,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>130.00</t>
+          <t>39.00</t>
         </is>
       </c>
     </row>
@@ -2374,7 +2374,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>130.00</t>
+          <t>94.00</t>
         </is>
       </c>
     </row>
@@ -2394,7 +2394,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>130.00</t>
+          <t>71.00</t>
         </is>
       </c>
     </row>
@@ -2434,7 +2434,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>45.00</t>
+          <t>16.35</t>
         </is>
       </c>
     </row>
@@ -2444,7 +2444,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>İLK GOL 22622 MBS 1</t>
+          <t>İLK GOL 34468 MBS 2</t>
         </is>
       </c>
     </row>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.43</t>
         </is>
       </c>
     </row>
@@ -2484,7 +2484,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>8.26</t>
+          <t>13.90</t>
         </is>
       </c>
     </row>
@@ -2504,7 +2504,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>1.87</t>
         </is>
       </c>
     </row>
@@ -2514,7 +2514,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>MS VE 2,5 ALT/ÜST 22624 MBS 1</t>
+          <t>MS VE 4,5 ALT/ÜST 34472 MBS 2</t>
         </is>
       </c>
     </row>
@@ -2534,7 +2534,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>5.89</t>
+          <t>2.28</t>
         </is>
       </c>
     </row>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>3.42</t>
         </is>
       </c>
     </row>
@@ -2574,7 +2574,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>3.75</t>
         </is>
       </c>
     </row>
@@ -2594,7 +2594,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>6.56</t>
         </is>
       </c>
     </row>
@@ -2614,7 +2614,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>12.30</t>
+          <t>34.00</t>
         </is>
       </c>
     </row>
@@ -2634,7 +2634,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>12.85</t>
         </is>
       </c>
     </row>
@@ -2644,7 +2644,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>MS VE 1,5 ALT/ÜST 22623 MBS 1</t>
+          <t>MS VE 2,5 ALT/ÜST 34470 MBS 2</t>
         </is>
       </c>
     </row>
@@ -2664,7 +2664,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>9.16</t>
+          <t>5.42</t>
         </is>
       </c>
     </row>
@@ -2684,7 +2684,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>9.38</t>
+          <t>4.84</t>
         </is>
       </c>
     </row>
@@ -2704,7 +2704,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>7.27</t>
+          <t>8.45</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>2.46</t>
         </is>
       </c>
     </row>
@@ -2744,7 +2744,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>8.78</t>
         </is>
       </c>
     </row>
@@ -2764,7 +2764,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>4.43</t>
         </is>
       </c>
     </row>
@@ -2774,7 +2774,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>MS VE 3,5 ALT/ÜST 22625 MBS 1</t>
+          <t>MS VE 1,5 ALT/ÜST 34469 MBS 2</t>
         </is>
       </c>
     </row>
@@ -2794,7 +2794,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>10.20</t>
         </is>
       </c>
     </row>
@@ -2814,7 +2814,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>16.10</t>
         </is>
       </c>
     </row>
@@ -2834,7 +2834,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>13.90</t>
         </is>
       </c>
     </row>
@@ -2854,7 +2854,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>11.25</t>
+          <t>2.04</t>
         </is>
       </c>
     </row>
@@ -2874,7 +2874,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>12.30</t>
+          <t>3.86</t>
         </is>
       </c>
     </row>
@@ -2894,7 +2894,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>6.73</t>
+          <t>3.67</t>
         </is>
       </c>
     </row>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>MS VE 4,5 ALT/ÜST 22626 MBS 1</t>
+          <t>MS VE 3,5 ALT/ÜST 34471 MBS 2</t>
         </is>
       </c>
     </row>
@@ -2924,7 +2924,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>2.87</t>
         </is>
       </c>
     </row>
@@ -2944,7 +2944,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>4.85</t>
         </is>
       </c>
     </row>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>4.50</t>
         </is>
       </c>
     </row>
@@ -2984,7 +2984,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>4.11</t>
         </is>
       </c>
     </row>
@@ -3004,7 +3004,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>34.00</t>
+          <t>8.78</t>
         </is>
       </c>
     </row>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>12.30</t>
+          <t>8.24</t>
         </is>
       </c>
     </row>
@@ -3034,7 +3034,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>1. YARI EN ÇOK KORNER 02503 MBS 1</t>
+          <t>1. YARI EN ÇOK KORNER 16970 MBS 2</t>
         </is>
       </c>
     </row>
@@ -3054,7 +3054,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>1.75</t>
         </is>
       </c>
     </row>
@@ -3074,7 +3074,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>5.04</t>
         </is>
       </c>
     </row>
@@ -3094,7 +3094,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>2.31</t>
         </is>
       </c>
     </row>
@@ -3104,7 +3104,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>1. YARI KORNER ARALIĞI 02936 MBS 1</t>
+          <t>1. YARI KORNER ARALIĞI 17016 MBS 2</t>
         </is>
       </c>
     </row>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.06</t>
         </is>
       </c>
     </row>
@@ -3144,7 +3144,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>2.85</t>
         </is>
       </c>
     </row>
@@ -3164,7 +3164,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>2.74</t>
         </is>
       </c>
     </row>
@@ -3174,7 +3174,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>1. YARI DEPLASMAN 0,5 ALT/ÜST 22709 MBS 1</t>
+          <t>1. YARI DEPLASMAN 0,5 ALT/ÜST 34514 MBS 2</t>
         </is>
       </c>
     </row>
@@ -3194,7 +3194,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.50</t>
         </is>
       </c>
     </row>
@@ -3214,7 +3214,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.92</t>
         </is>
       </c>
     </row>
@@ -3244,7 +3244,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>TOPLAM KORNER ARALIĞI 02466 MBS 1</t>
+          <t>TOPLAM KORNER ARALIĞI 16960 MBS 2</t>
         </is>
       </c>
     </row>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>3.20</t>
         </is>
       </c>
     </row>
@@ -3284,7 +3284,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>2.74</t>
         </is>
       </c>
     </row>
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>1.91</t>
         </is>
       </c>
     </row>
@@ -3314,7 +3314,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>EN ÇOK KORNER 02821 MBS 1</t>
+          <t>EN ÇOK KORNER 16986 MBS 2</t>
         </is>
       </c>
     </row>
@@ -3334,7 +3334,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>1.59</t>
         </is>
       </c>
     </row>
@@ -3374,7 +3374,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>2.30</t>
         </is>
       </c>
     </row>
@@ -3384,7 +3384,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>1.YARI 4,5 KORNER ALT/ÜST 02747 MBS 1</t>
+          <t>1.YARI 5,5 KORNER ALT/ÜST 16963 MBS 2</t>
         </is>
       </c>
     </row>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.50</t>
         </is>
       </c>
     </row>
@@ -3424,7 +3424,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.90</t>
         </is>
       </c>
     </row>
@@ -3434,7 +3434,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>EV SAHIBI 0,5 A/Ü 22657 MBS 1</t>
+          <t>EV SAHIBI 2,5 A/Ü 34491 MBS 2</t>
         </is>
       </c>
     </row>
@@ -3454,7 +3454,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>1.17</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3474,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>3.01</t>
         </is>
       </c>
     </row>
@@ -3484,7 +3484,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>EV SAHIBI 1,5 A/Ü 22658 MBS 1</t>
+          <t>EV SAHIBI 0,5 A/Ü 34489 MBS 2</t>
         </is>
       </c>
     </row>
@@ -3504,7 +3504,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>4.51</t>
         </is>
       </c>
     </row>
@@ -3524,7 +3524,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3534,7 +3534,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>EV SAHIBI 2,5 A/Ü 22661 MBS 1</t>
+          <t>EV SAHIBI 1,5 A/Ü 34490 MBS 2</t>
         </is>
       </c>
     </row>
@@ -3554,7 +3554,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.79</t>
         </is>
       </c>
     </row>
@@ -3574,7 +3574,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>1.58</t>
         </is>
       </c>
     </row>
@@ -3584,7 +3584,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>EN ÇOK GOL OLACAK YARI 22687 MBS 1</t>
+          <t>EN ÇOK GOL OLACAK YARI 34497 MBS 2</t>
         </is>
       </c>
     </row>
@@ -3604,7 +3604,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>2.87</t>
         </is>
       </c>
     </row>
@@ -3624,7 +3624,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>3.39</t>
         </is>
       </c>
     </row>
@@ -3644,7 +3644,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.79</t>
         </is>
       </c>
     </row>
@@ -3654,7 +3654,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>DEPLASMAN 2,5 A/Ü 22684 MBS 1</t>
+          <t>DEPLASMAN 2,5 A/Ü 34494 MBS 2</t>
         </is>
       </c>
     </row>
@@ -3694,7 +3694,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>4.99</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>DEPLASMAN 0,5 A/Ü 22682 MBS 1</t>
+          <t>DEPLASMAN 0,5 A/Ü 34492 MBS 2</t>
         </is>
       </c>
     </row>
@@ -3724,7 +3724,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>3.01</t>
         </is>
       </c>
     </row>
@@ -3744,7 +3744,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.17</t>
         </is>
       </c>
     </row>
@@ -3754,7 +3754,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>DEPLASMAN 1,5 A/Ü 22683 MBS 1</t>
+          <t>DEPLASMAN 1,5 A/Ü 34493 MBS 2</t>
         </is>
       </c>
     </row>
@@ -3774,7 +3774,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>1.37</t>
         </is>
       </c>
     </row>
@@ -3794,7 +3794,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>2.17</t>
         </is>
       </c>
     </row>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>İLK KORNER 02844 MBS 1</t>
+          <t>İLK KORNER 16987 MBS 2</t>
         </is>
       </c>
     </row>
@@ -3824,7 +3824,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.56</t>
         </is>
       </c>
     </row>
@@ -3864,7 +3864,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>1.79</t>
         </is>
       </c>
     </row>
@@ -3874,7 +3874,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>1. YARI KARŞILIKLI GOL 22707 MBS 1</t>
+          <t>1. YARI KARŞILIKLI GOL 34510 MBS 2</t>
         </is>
       </c>
     </row>
@@ -3894,7 +3894,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>3.32</t>
         </is>
       </c>
     </row>
@@ -3914,7 +3914,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.12</t>
         </is>
       </c>
     </row>
@@ -3924,7 +3924,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>EV SAHIBI İKI YARIYI DA KAZANIR 22692 MBS 1</t>
+          <t>EV SAHIBI İKI YARIYI DA KAZANIR 34501 MBS 2</t>
         </is>
       </c>
     </row>
@@ -3944,7 +3944,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>9.12</t>
+          <t>4.93</t>
         </is>
       </c>
     </row>
@@ -3974,7 +3974,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>1. YARI EV SAHIBI 0,5 ALT/ÜST 22708 MBS 1</t>
+          <t>1. YARI EV SAHIBI 0,5 ALT/ÜST 34511 MBS 2</t>
         </is>
       </c>
     </row>
@@ -3994,7 +3994,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>1.82</t>
         </is>
       </c>
     </row>
@@ -4014,7 +4014,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>1.57</t>
         </is>
       </c>
     </row>
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>DEPLASMAN İKI YARIYI DA KAZANIR 22694 MBS 1</t>
+          <t>DEPLASMAN İKI YARIYI DA KAZANIR 34502 MBS 2</t>
         </is>
       </c>
     </row>
@@ -4044,7 +4044,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>6.10</t>
+          <t>9.12</t>
         </is>
       </c>
     </row>
